--- a/Code/Results/Cases/Case_3_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02935609602772</v>
+        <v>1.070014146749288</v>
       </c>
       <c r="D2">
-        <v>1.045519020964035</v>
+        <v>1.06976653682712</v>
       </c>
       <c r="E2">
-        <v>1.041398553258982</v>
+        <v>1.073882399047981</v>
       </c>
       <c r="F2">
-        <v>1.053059361776244</v>
+        <v>1.082995814583443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061498673042054</v>
+        <v>1.051784793677603</v>
       </c>
       <c r="J2">
-        <v>1.050692872631297</v>
+        <v>1.074945950641331</v>
       </c>
       <c r="K2">
-        <v>1.056378637884461</v>
+        <v>1.072468166773134</v>
       </c>
       <c r="L2">
-        <v>1.052309764697533</v>
+        <v>1.07657308269903</v>
       </c>
       <c r="M2">
-        <v>1.063825862511223</v>
+        <v>1.085662580470776</v>
       </c>
       <c r="N2">
-        <v>1.052184977026591</v>
+        <v>1.076472497189266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.036882267281479</v>
+        <v>1.071523160222331</v>
       </c>
       <c r="D3">
-        <v>1.051270909437525</v>
+        <v>1.070920030451972</v>
       </c>
       <c r="E3">
-        <v>1.047741988650245</v>
+        <v>1.07519063302456</v>
       </c>
       <c r="F3">
-        <v>1.059392208659836</v>
+        <v>1.084296318605072</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064092466042694</v>
+        <v>1.052191866972033</v>
       </c>
       <c r="J3">
-        <v>1.056415600320451</v>
+        <v>1.076109709201634</v>
       </c>
       <c r="K3">
-        <v>1.061287250528844</v>
+        <v>1.073437057980772</v>
       </c>
       <c r="L3">
-        <v>1.057798378909791</v>
+        <v>1.077697129149831</v>
       </c>
       <c r="M3">
-        <v>1.069317629179442</v>
+        <v>1.086780657664182</v>
       </c>
       <c r="N3">
-        <v>1.057915831645469</v>
+        <v>1.077637908420209</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.041611909165841</v>
+        <v>1.072498501957363</v>
       </c>
       <c r="D4">
-        <v>1.054887272376307</v>
+        <v>1.071665239141248</v>
       </c>
       <c r="E4">
-        <v>1.051733425965067</v>
+        <v>1.076036295216696</v>
       </c>
       <c r="F4">
-        <v>1.063377082355788</v>
+        <v>1.085136950566755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065708060082666</v>
+        <v>1.052453160705257</v>
       </c>
       <c r="J4">
-        <v>1.060007918860691</v>
+        <v>1.076861207369685</v>
       </c>
       <c r="K4">
-        <v>1.064365487873918</v>
+        <v>1.074062234482782</v>
       </c>
       <c r="L4">
-        <v>1.061245131244387</v>
+        <v>1.078423057379435</v>
       </c>
       <c r="M4">
-        <v>1.072766352330633</v>
+        <v>1.087502690436903</v>
       </c>
       <c r="N4">
-        <v>1.061513251690081</v>
+        <v>1.078390473801857</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.043568499150444</v>
+        <v>1.072908280971594</v>
       </c>
       <c r="D5">
-        <v>1.056383621044859</v>
+        <v>1.071978246726999</v>
       </c>
       <c r="E5">
-        <v>1.053385751862901</v>
+        <v>1.076391612266518</v>
       </c>
       <c r="F5">
-        <v>1.06502669997718</v>
+        <v>1.085490145871162</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066372885626705</v>
+        <v>1.052562505358848</v>
       </c>
       <c r="J5">
-        <v>1.061492990081437</v>
+        <v>1.07717677531045</v>
       </c>
       <c r="K5">
-        <v>1.065637282122185</v>
+        <v>1.074324640962951</v>
       </c>
       <c r="L5">
-        <v>1.062670345523338</v>
+        <v>1.078727905683463</v>
       </c>
       <c r="M5">
-        <v>1.074192366585757</v>
+        <v>1.087805893002075</v>
       </c>
       <c r="N5">
-        <v>1.063000431882301</v>
+        <v>1.078706489885294</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.043895207906635</v>
+        <v>1.072977069926967</v>
       </c>
       <c r="D6">
-        <v>1.056633494425238</v>
+        <v>1.072030785884931</v>
       </c>
       <c r="E6">
-        <v>1.05366171839904</v>
+        <v>1.076451260012431</v>
       </c>
       <c r="F6">
-        <v>1.065302214289675</v>
+        <v>1.085549436947364</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066483688176739</v>
+        <v>1.052580835352088</v>
       </c>
       <c r="J6">
-        <v>1.061740903272471</v>
+        <v>1.077229739472235</v>
       </c>
       <c r="K6">
-        <v>1.065849546387013</v>
+        <v>1.074368675781454</v>
       </c>
       <c r="L6">
-        <v>1.062908284842054</v>
+        <v>1.078779071719362</v>
       </c>
       <c r="M6">
-        <v>1.074430438221778</v>
+        <v>1.087856782230989</v>
       </c>
       <c r="N6">
-        <v>1.063248697138501</v>
+        <v>1.078759529262263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.041638175661717</v>
+        <v>1.072503978437145</v>
       </c>
       <c r="D7">
-        <v>1.054907359222736</v>
+        <v>1.071669422651835</v>
       </c>
       <c r="E7">
-        <v>1.051755603507923</v>
+        <v>1.07604104375782</v>
       </c>
       <c r="F7">
-        <v>1.063399223532099</v>
+        <v>1.085141670784952</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06571699915052</v>
+        <v>1.052454623748909</v>
       </c>
       <c r="J7">
-        <v>1.060027859524175</v>
+        <v>1.07686542542007</v>
       </c>
       <c r="K7">
-        <v>1.064382567800937</v>
+        <v>1.074065742407631</v>
       </c>
       <c r="L7">
-        <v>1.061264266933368</v>
+        <v>1.078427132076143</v>
       </c>
       <c r="M7">
-        <v>1.072785498836098</v>
+        <v>1.087506743175205</v>
       </c>
       <c r="N7">
-        <v>1.061533220671594</v>
+        <v>1.078394697842357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.03192980322983</v>
+        <v>1.070524354719213</v>
       </c>
       <c r="D8">
-        <v>1.047485548583452</v>
+        <v>1.070156611933517</v>
       </c>
       <c r="E8">
-        <v>1.043566677419923</v>
+        <v>1.074324702289432</v>
       </c>
       <c r="F8">
-        <v>1.055223836586865</v>
+        <v>1.083435511199689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062388664876663</v>
+        <v>1.051922804011985</v>
       </c>
       <c r="J8">
-        <v>1.052650661083846</v>
+        <v>1.07533956825027</v>
       </c>
       <c r="K8">
-        <v>1.058058536413457</v>
+        <v>1.072795975016875</v>
       </c>
       <c r="L8">
-        <v>1.054187158042649</v>
+        <v>1.076953253046286</v>
       </c>
       <c r="M8">
-        <v>1.065704327903276</v>
+        <v>1.08604074018111</v>
       </c>
       <c r="N8">
-        <v>1.054145545763303</v>
+        <v>1.076866673780358</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013656743672293</v>
+        <v>1.067027357645081</v>
       </c>
       <c r="D9">
-        <v>1.033535750849654</v>
+        <v>1.067481634874247</v>
       </c>
       <c r="E9">
-        <v>1.028199307720207</v>
+        <v>1.071293543358975</v>
       </c>
       <c r="F9">
-        <v>1.03988343608158</v>
+        <v>1.080422086462373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056010514572198</v>
+        <v>1.050969425320523</v>
       </c>
       <c r="J9">
-        <v>1.038736295833353</v>
+        <v>1.072638870865947</v>
       </c>
       <c r="K9">
-        <v>1.046107195666793</v>
+        <v>1.070544823408709</v>
       </c>
       <c r="L9">
-        <v>1.040850858246549</v>
+        <v>1.07434513008538</v>
       </c>
       <c r="M9">
-        <v>1.052360954755731</v>
+        <v>1.083446252345462</v>
       </c>
       <c r="N9">
-        <v>1.040211420518155</v>
+        <v>1.074162141095975</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00054769412778</v>
+        <v>1.064689801945728</v>
       </c>
       <c r="D10">
-        <v>1.023550165673768</v>
+        <v>1.065691865422584</v>
       </c>
       <c r="E10">
-        <v>1.017213619442974</v>
+        <v>1.069267931590954</v>
       </c>
       <c r="F10">
-        <v>1.028919285050536</v>
+        <v>1.078408171883951</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051362424309588</v>
+        <v>1.050322797385038</v>
       </c>
       <c r="J10">
-        <v>1.02873959883899</v>
+        <v>1.070830076717234</v>
       </c>
       <c r="K10">
-        <v>1.037506846373306</v>
+        <v>1.069034628117904</v>
       </c>
       <c r="L10">
-        <v>1.031278879779429</v>
+        <v>1.072598732068127</v>
       </c>
       <c r="M10">
-        <v>1.042785312742254</v>
+        <v>1.081708792899329</v>
       </c>
       <c r="N10">
-        <v>1.030200527067423</v>
+        <v>1.0723507782521</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9946139622021587</v>
+        <v>1.063676046321728</v>
       </c>
       <c r="D11">
-        <v>1.019037691871187</v>
+        <v>1.064915287087681</v>
       </c>
       <c r="E11">
-        <v>1.012252201949473</v>
+        <v>1.06838960335434</v>
       </c>
       <c r="F11">
-        <v>1.023968435949722</v>
+        <v>1.077534881894925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049242550438199</v>
+        <v>1.050040154047087</v>
       </c>
       <c r="J11">
-        <v>1.024212536007739</v>
+        <v>1.070044805910135</v>
       </c>
       <c r="K11">
-        <v>1.033609299177648</v>
+        <v>1.068378405872905</v>
       </c>
       <c r="L11">
-        <v>1.02694670038488</v>
+        <v>1.071840645063449</v>
       </c>
       <c r="M11">
-        <v>1.038452068799483</v>
+        <v>1.080954543090285</v>
       </c>
       <c r="N11">
-        <v>1.025667035287689</v>
+        <v>1.071564392270383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9923675391394665</v>
+        <v>1.063299247187841</v>
       </c>
       <c r="D12">
-        <v>1.017330667567405</v>
+        <v>1.064626586373036</v>
       </c>
       <c r="E12">
-        <v>1.010375753132261</v>
+        <v>1.068063163140597</v>
       </c>
       <c r="F12">
-        <v>1.022096139969483</v>
+        <v>1.077210309351166</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04843772271571</v>
+        <v>1.049934767296726</v>
       </c>
       <c r="J12">
-        <v>1.022498468204217</v>
+        <v>1.069752807333647</v>
       </c>
       <c r="K12">
-        <v>1.032133204569243</v>
+        <v>1.068134305683095</v>
       </c>
       <c r="L12">
-        <v>1.025306833702804</v>
+        <v>1.07155876905765</v>
       </c>
       <c r="M12">
-        <v>1.03681191293967</v>
+        <v>1.080674087612174</v>
       </c>
       <c r="N12">
-        <v>1.023950533311281</v>
+        <v>1.071271979022423</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.992851386537258</v>
+        <v>1.063380083103936</v>
       </c>
       <c r="D13">
-        <v>1.017698272422439</v>
+        <v>1.064688524823033</v>
       </c>
       <c r="E13">
-        <v>1.010779825689374</v>
+        <v>1.068133194368573</v>
       </c>
       <c r="F13">
-        <v>1.022499310722101</v>
+        <v>1.077279940123644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048611171688496</v>
+        <v>1.049957391271801</v>
       </c>
       <c r="J13">
-        <v>1.02286766018221</v>
+        <v>1.069815456325313</v>
       </c>
       <c r="K13">
-        <v>1.032451155929158</v>
+        <v>1.068186681919831</v>
       </c>
       <c r="L13">
-        <v>1.025660024384445</v>
+        <v>1.071619245572759</v>
       </c>
       <c r="M13">
-        <v>1.03716516034581</v>
+        <v>1.080734259631942</v>
       </c>
       <c r="N13">
-        <v>1.024320249584229</v>
+        <v>1.071334716982842</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.994429159621469</v>
+        <v>1.063644905035343</v>
       </c>
       <c r="D14">
-        <v>1.018897234762863</v>
+        <v>1.064891428023025</v>
       </c>
       <c r="E14">
-        <v>1.012097796307123</v>
+        <v>1.068362623614986</v>
       </c>
       <c r="F14">
-        <v>1.02381436868821</v>
+        <v>1.07750805661298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049176386461916</v>
+        <v>1.050031450928151</v>
       </c>
       <c r="J14">
-        <v>1.024071530804496</v>
+        <v>1.070020675657163</v>
       </c>
       <c r="K14">
-        <v>1.033487877867536</v>
+        <v>1.068358235643595</v>
       </c>
       <c r="L14">
-        <v>1.026811790663913</v>
+        <v>1.071817351027104</v>
       </c>
       <c r="M14">
-        <v>1.038317132830251</v>
+        <v>1.080931366571394</v>
       </c>
       <c r="N14">
-        <v>1.025525829840885</v>
+        <v>1.071540227749683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9953955443820321</v>
+        <v>1.063808037841725</v>
       </c>
       <c r="D15">
-        <v>1.019631779989903</v>
+        <v>1.065016410770218</v>
       </c>
       <c r="E15">
-        <v>1.01290530410084</v>
+        <v>1.068503957190091</v>
       </c>
       <c r="F15">
-        <v>1.024620113339819</v>
+        <v>1.07764858086454</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049522284840703</v>
+        <v>1.050077028393087</v>
       </c>
       <c r="J15">
-        <v>1.024808879871698</v>
+        <v>1.070147076270961</v>
       </c>
       <c r="K15">
-        <v>1.034122803107512</v>
+        <v>1.06846388902756</v>
       </c>
       <c r="L15">
-        <v>1.027517282006034</v>
+        <v>1.071939371909487</v>
       </c>
       <c r="M15">
-        <v>1.039022766211093</v>
+        <v>1.081052771609285</v>
       </c>
       <c r="N15">
-        <v>1.026264226028337</v>
+        <v>1.071666807866851</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000935768034596</v>
+        <v>1.064757047627759</v>
       </c>
       <c r="D16">
-        <v>1.023845458791832</v>
+        <v>1.065743370300484</v>
       </c>
       <c r="E16">
-        <v>1.017538349632066</v>
+        <v>1.069326197026683</v>
       </c>
       <c r="F16">
-        <v>1.029243343350646</v>
+        <v>1.078466102406645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051500746781644</v>
+        <v>1.050341499471207</v>
       </c>
       <c r="J16">
-        <v>1.029035641431922</v>
+        <v>1.070882148839985</v>
       </c>
       <c r="K16">
-        <v>1.037761667726489</v>
+        <v>1.0690781306059</v>
       </c>
       <c r="L16">
-        <v>1.031562233335664</v>
+        <v>1.072649003618119</v>
       </c>
       <c r="M16">
-        <v>1.043068750218413</v>
+        <v>1.081758809105228</v>
       </c>
       <c r="N16">
-        <v>1.030496990074794</v>
+        <v>1.072402924323237</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004339620656231</v>
+        <v>1.065351908135489</v>
       </c>
       <c r="D17">
-        <v>1.026436380364979</v>
+        <v>1.066198941823191</v>
       </c>
       <c r="E17">
-        <v>1.020387888062767</v>
+        <v>1.069841634196852</v>
       </c>
       <c r="F17">
-        <v>1.03208708415435</v>
+        <v>1.078978572942866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05271220767386</v>
+        <v>1.050506684228331</v>
       </c>
       <c r="J17">
-        <v>1.031632049063819</v>
+        <v>1.071342687181122</v>
       </c>
       <c r="K17">
-        <v>1.039996235266882</v>
+        <v>1.069462809560941</v>
       </c>
       <c r="L17">
-        <v>1.03404764380678</v>
+        <v>1.073093628251578</v>
       </c>
       <c r="M17">
-        <v>1.045554966451161</v>
+        <v>1.082201170433633</v>
       </c>
       <c r="N17">
-        <v>1.03309708490334</v>
+        <v>1.072864116681643</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006300465828036</v>
+        <v>1.06569872843854</v>
       </c>
       <c r="D18">
-        <v>1.027929607299035</v>
+        <v>1.066464515307926</v>
       </c>
       <c r="E18">
-        <v>1.02203044912128</v>
+        <v>1.070142162190979</v>
       </c>
       <c r="F18">
-        <v>1.033726380394124</v>
+        <v>1.079277367955157</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053408583397339</v>
+        <v>1.050602778260494</v>
       </c>
       <c r="J18">
-        <v>1.033127544196971</v>
+        <v>1.071611113912563</v>
       </c>
       <c r="K18">
-        <v>1.041283046577087</v>
+        <v>1.069686964919002</v>
       </c>
       <c r="L18">
-        <v>1.035479443187276</v>
+        <v>1.0733527887646</v>
       </c>
       <c r="M18">
-        <v>1.046987284060782</v>
+        <v>1.082459007574784</v>
       </c>
       <c r="N18">
-        <v>1.034594703811117</v>
+        <v>1.073132924609832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006965001385357</v>
+        <v>1.065816959697688</v>
       </c>
       <c r="D19">
-        <v>1.02843577590642</v>
+        <v>1.066555043090603</v>
       </c>
       <c r="E19">
-        <v>1.022587288119444</v>
+        <v>1.070244614671332</v>
       </c>
       <c r="F19">
-        <v>1.034282124860588</v>
+        <v>1.079379229085722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053644328093985</v>
+        <v>1.050635500587562</v>
       </c>
       <c r="J19">
-        <v>1.033634332516191</v>
+        <v>1.07170260717067</v>
       </c>
       <c r="K19">
-        <v>1.041719069914368</v>
+        <v>1.06976335870062</v>
       </c>
       <c r="L19">
-        <v>1.035964685883954</v>
+        <v>1.073441125180494</v>
       </c>
       <c r="M19">
-        <v>1.047472710868659</v>
+        <v>1.082546892201484</v>
       </c>
       <c r="N19">
-        <v>1.03510221182788</v>
+        <v>1.073224547798859</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003976985488831</v>
+        <v>1.065288100988677</v>
       </c>
       <c r="D20">
-        <v>1.026160279647278</v>
+        <v>1.066150079242926</v>
       </c>
       <c r="E20">
-        <v>1.020084198572368</v>
+        <v>1.069786344893068</v>
       </c>
       <c r="F20">
-        <v>1.031784004336303</v>
+        <v>1.078923602197348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052583298378498</v>
+        <v>1.050488987906335</v>
       </c>
       <c r="J20">
-        <v>1.031355457166531</v>
+        <v>1.07129329624585</v>
       </c>
       <c r="K20">
-        <v>1.039758217353751</v>
+        <v>1.069421560081808</v>
       </c>
       <c r="L20">
-        <v>1.033782851446353</v>
+        <v>1.073045943051126</v>
       </c>
       <c r="M20">
-        <v>1.045290082463297</v>
+        <v>1.082153728396309</v>
       </c>
       <c r="N20">
-        <v>1.032820100213832</v>
+        <v>1.072814655605578</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9939657465298599</v>
+        <v>1.063566928409065</v>
       </c>
       <c r="D21">
-        <v>1.018545045067038</v>
+        <v>1.06483168489074</v>
       </c>
       <c r="E21">
-        <v>1.011710637685702</v>
+        <v>1.06829506771327</v>
       </c>
       <c r="F21">
-        <v>1.023428061138016</v>
+        <v>1.077440887387248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049010436765176</v>
+        <v>1.050009653278613</v>
       </c>
       <c r="J21">
-        <v>1.023717941953781</v>
+        <v>1.069960252395321</v>
       </c>
       <c r="K21">
-        <v>1.033183392254328</v>
+        <v>1.068307727049259</v>
       </c>
       <c r="L21">
-        <v>1.026473493776193</v>
+        <v>1.071759021923542</v>
       </c>
       <c r="M21">
-        <v>1.03797877204081</v>
+        <v>1.080873331635702</v>
       </c>
       <c r="N21">
-        <v>1.025171738853445</v>
+        <v>1.071479718679879</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9874239360332098</v>
+        <v>1.062483336491475</v>
       </c>
       <c r="D22">
-        <v>1.013576809884011</v>
+        <v>1.064001338305411</v>
       </c>
       <c r="E22">
-        <v>1.00625001643505</v>
+        <v>1.067356340303403</v>
       </c>
       <c r="F22">
-        <v>1.017979856833043</v>
+        <v>1.076507521853168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046662522158879</v>
+        <v>1.049705958595898</v>
       </c>
       <c r="J22">
-        <v>1.018726203964135</v>
+        <v>1.069120294961959</v>
       </c>
       <c r="K22">
-        <v>1.028884021706538</v>
+        <v>1.067605388434837</v>
       </c>
       <c r="L22">
-        <v>1.021698667808234</v>
+        <v>1.070948210221033</v>
       </c>
       <c r="M22">
-        <v>1.03320335033277</v>
+        <v>1.080066594528355</v>
       </c>
       <c r="N22">
-        <v>1.020172912023293</v>
+        <v>1.070638568410617</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9909166851067088</v>
+        <v>1.063057906578087</v>
       </c>
       <c r="D23">
-        <v>1.01622858878843</v>
+        <v>1.064441657030321</v>
       </c>
       <c r="E23">
-        <v>1.009164400151578</v>
+        <v>1.067854083945925</v>
       </c>
       <c r="F23">
-        <v>1.020887515750784</v>
+        <v>1.077002425029135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047917299038562</v>
+        <v>1.049867173423835</v>
       </c>
       <c r="J23">
-        <v>1.021391400483473</v>
+        <v>1.069565746769</v>
       </c>
       <c r="K23">
-        <v>1.031179736558771</v>
+        <v>1.067977905233056</v>
       </c>
       <c r="L23">
-        <v>1.024247810927592</v>
+        <v>1.071378197307442</v>
       </c>
       <c r="M23">
-        <v>1.03575273880174</v>
+        <v>1.080494424131306</v>
       </c>
       <c r="N23">
-        <v>1.022841893427391</v>
+        <v>1.071084652810318</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004140920349401</v>
+        <v>1.065316933161029</v>
       </c>
       <c r="D24">
-        <v>1.026285093156378</v>
+        <v>1.066172158614858</v>
       </c>
       <c r="E24">
-        <v>1.020221482914381</v>
+        <v>1.069811328113834</v>
       </c>
       <c r="F24">
-        <v>1.031921012835579</v>
+        <v>1.078948441483379</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052641578515791</v>
+        <v>1.050496984901956</v>
       </c>
       <c r="J24">
-        <v>1.031480495486209</v>
+        <v>1.071315614494012</v>
       </c>
       <c r="K24">
-        <v>1.039865818452016</v>
+        <v>1.069440199630144</v>
       </c>
       <c r="L24">
-        <v>1.033902554839783</v>
+        <v>1.073067490501775</v>
       </c>
       <c r="M24">
-        <v>1.045409827112219</v>
+        <v>1.082175165981985</v>
       </c>
       <c r="N24">
-        <v>1.032945316102267</v>
+        <v>1.072837005548212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.018532672792892</v>
+        <v>1.067932482052708</v>
       </c>
       <c r="D25">
-        <v>1.0372549970577</v>
+        <v>1.068174298619768</v>
       </c>
       <c r="E25">
-        <v>1.032293867696594</v>
+        <v>1.072078001161453</v>
       </c>
       <c r="F25">
-        <v>1.043970516480704</v>
+        <v>1.08120198271033</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057725139028361</v>
+        <v>1.05121783393509</v>
       </c>
       <c r="J25">
-        <v>1.042452039827797</v>
+        <v>1.073338511843913</v>
       </c>
       <c r="K25">
-        <v>1.049301250087493</v>
+        <v>1.071128443746778</v>
       </c>
       <c r="L25">
-        <v>1.044410725194289</v>
+        <v>1.075020719960026</v>
       </c>
       <c r="M25">
-        <v>1.055922546399197</v>
+        <v>1.084118344807403</v>
       </c>
       <c r="N25">
-        <v>1.043932441295272</v>
+        <v>1.074862775644379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.070014146749288</v>
+        <v>1.029356096027721</v>
       </c>
       <c r="D2">
-        <v>1.06976653682712</v>
+        <v>1.045519020964035</v>
       </c>
       <c r="E2">
-        <v>1.073882399047981</v>
+        <v>1.041398553258982</v>
       </c>
       <c r="F2">
-        <v>1.082995814583443</v>
+        <v>1.053059361776244</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051784793677603</v>
+        <v>1.061498673042055</v>
       </c>
       <c r="J2">
-        <v>1.074945950641331</v>
+        <v>1.050692872631298</v>
       </c>
       <c r="K2">
-        <v>1.072468166773134</v>
+        <v>1.056378637884461</v>
       </c>
       <c r="L2">
-        <v>1.07657308269903</v>
+        <v>1.052309764697533</v>
       </c>
       <c r="M2">
-        <v>1.085662580470776</v>
+        <v>1.063825862511223</v>
       </c>
       <c r="N2">
-        <v>1.076472497189266</v>
+        <v>1.052184977026591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071523160222331</v>
+        <v>1.03688226728148</v>
       </c>
       <c r="D3">
-        <v>1.070920030451972</v>
+        <v>1.051270909437526</v>
       </c>
       <c r="E3">
-        <v>1.07519063302456</v>
+        <v>1.047741988650246</v>
       </c>
       <c r="F3">
-        <v>1.084296318605072</v>
+        <v>1.059392208659837</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052191866972033</v>
+        <v>1.064092466042694</v>
       </c>
       <c r="J3">
-        <v>1.076109709201634</v>
+        <v>1.056415600320452</v>
       </c>
       <c r="K3">
-        <v>1.073437057980772</v>
+        <v>1.061287250528845</v>
       </c>
       <c r="L3">
-        <v>1.077697129149831</v>
+        <v>1.057798378909792</v>
       </c>
       <c r="M3">
-        <v>1.086780657664182</v>
+        <v>1.069317629179443</v>
       </c>
       <c r="N3">
-        <v>1.077637908420209</v>
+        <v>1.05791583164547</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072498501957363</v>
+        <v>1.04161190916584</v>
       </c>
       <c r="D4">
-        <v>1.071665239141248</v>
+        <v>1.054887272376306</v>
       </c>
       <c r="E4">
-        <v>1.076036295216696</v>
+        <v>1.051733425965066</v>
       </c>
       <c r="F4">
-        <v>1.085136950566755</v>
+        <v>1.063377082355787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052453160705257</v>
+        <v>1.065708060082666</v>
       </c>
       <c r="J4">
-        <v>1.076861207369685</v>
+        <v>1.06000791886069</v>
       </c>
       <c r="K4">
-        <v>1.074062234482782</v>
+        <v>1.064365487873917</v>
       </c>
       <c r="L4">
-        <v>1.078423057379435</v>
+        <v>1.061245131244385</v>
       </c>
       <c r="M4">
-        <v>1.087502690436903</v>
+        <v>1.072766352330632</v>
       </c>
       <c r="N4">
-        <v>1.078390473801857</v>
+        <v>1.06151325169008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072908280971594</v>
+        <v>1.043568499150441</v>
       </c>
       <c r="D5">
-        <v>1.071978246726999</v>
+        <v>1.056383621044857</v>
       </c>
       <c r="E5">
-        <v>1.076391612266518</v>
+        <v>1.0533857518629</v>
       </c>
       <c r="F5">
-        <v>1.085490145871162</v>
+        <v>1.065026699977178</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052562505358848</v>
+        <v>1.066372885626704</v>
       </c>
       <c r="J5">
-        <v>1.07717677531045</v>
+        <v>1.061492990081435</v>
       </c>
       <c r="K5">
-        <v>1.074324640962951</v>
+        <v>1.065637282122183</v>
       </c>
       <c r="L5">
-        <v>1.078727905683463</v>
+        <v>1.062670345523336</v>
       </c>
       <c r="M5">
-        <v>1.087805893002075</v>
+        <v>1.074192366585756</v>
       </c>
       <c r="N5">
-        <v>1.078706489885294</v>
+        <v>1.063000431882298</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072977069926967</v>
+        <v>1.043895207906635</v>
       </c>
       <c r="D6">
-        <v>1.072030785884931</v>
+        <v>1.056633494425238</v>
       </c>
       <c r="E6">
-        <v>1.076451260012431</v>
+        <v>1.05366171839904</v>
       </c>
       <c r="F6">
-        <v>1.085549436947364</v>
+        <v>1.065302214289675</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052580835352088</v>
+        <v>1.066483688176739</v>
       </c>
       <c r="J6">
-        <v>1.077229739472235</v>
+        <v>1.06174090327247</v>
       </c>
       <c r="K6">
-        <v>1.074368675781454</v>
+        <v>1.065849546387012</v>
       </c>
       <c r="L6">
-        <v>1.078779071719362</v>
+        <v>1.062908284842054</v>
       </c>
       <c r="M6">
-        <v>1.087856782230989</v>
+        <v>1.074430438221778</v>
       </c>
       <c r="N6">
-        <v>1.078759529262263</v>
+        <v>1.063248697138501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072503978437145</v>
+        <v>1.041638175661717</v>
       </c>
       <c r="D7">
-        <v>1.071669422651835</v>
+        <v>1.054907359222737</v>
       </c>
       <c r="E7">
-        <v>1.07604104375782</v>
+        <v>1.051755603507922</v>
       </c>
       <c r="F7">
-        <v>1.085141670784952</v>
+        <v>1.0633992235321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052454623748909</v>
+        <v>1.06571699915052</v>
       </c>
       <c r="J7">
-        <v>1.07686542542007</v>
+        <v>1.060027859524175</v>
       </c>
       <c r="K7">
-        <v>1.074065742407631</v>
+        <v>1.064382567800937</v>
       </c>
       <c r="L7">
-        <v>1.078427132076143</v>
+        <v>1.061264266933367</v>
       </c>
       <c r="M7">
-        <v>1.087506743175205</v>
+        <v>1.072785498836098</v>
       </c>
       <c r="N7">
-        <v>1.078394697842357</v>
+        <v>1.061533220671594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070524354719213</v>
+        <v>1.031929803229829</v>
       </c>
       <c r="D8">
-        <v>1.070156611933517</v>
+        <v>1.047485548583451</v>
       </c>
       <c r="E8">
-        <v>1.074324702289432</v>
+        <v>1.043566677419921</v>
       </c>
       <c r="F8">
-        <v>1.083435511199689</v>
+        <v>1.055223836586864</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051922804011985</v>
+        <v>1.062388664876662</v>
       </c>
       <c r="J8">
-        <v>1.07533956825027</v>
+        <v>1.052650661083845</v>
       </c>
       <c r="K8">
-        <v>1.072795975016875</v>
+        <v>1.058058536413456</v>
       </c>
       <c r="L8">
-        <v>1.076953253046286</v>
+        <v>1.054187158042648</v>
       </c>
       <c r="M8">
-        <v>1.08604074018111</v>
+        <v>1.065704327903275</v>
       </c>
       <c r="N8">
-        <v>1.076866673780358</v>
+        <v>1.054145545763302</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.067027357645081</v>
+        <v>1.013656743672295</v>
       </c>
       <c r="D9">
-        <v>1.067481634874247</v>
+        <v>1.033535750849655</v>
       </c>
       <c r="E9">
-        <v>1.071293543358975</v>
+        <v>1.028199307720209</v>
       </c>
       <c r="F9">
-        <v>1.080422086462373</v>
+        <v>1.039883436081583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050969425320523</v>
+        <v>1.056010514572199</v>
       </c>
       <c r="J9">
-        <v>1.072638870865947</v>
+        <v>1.038736295833355</v>
       </c>
       <c r="K9">
-        <v>1.070544823408709</v>
+        <v>1.046107195666794</v>
       </c>
       <c r="L9">
-        <v>1.07434513008538</v>
+        <v>1.040850858246551</v>
       </c>
       <c r="M9">
-        <v>1.083446252345462</v>
+        <v>1.052360954755733</v>
       </c>
       <c r="N9">
-        <v>1.074162141095975</v>
+        <v>1.040211420518157</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064689801945728</v>
+        <v>1.00054769412778</v>
       </c>
       <c r="D10">
-        <v>1.065691865422584</v>
+        <v>1.023550165673768</v>
       </c>
       <c r="E10">
-        <v>1.069267931590954</v>
+        <v>1.017213619442973</v>
       </c>
       <c r="F10">
-        <v>1.078408171883951</v>
+        <v>1.028919285050536</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050322797385038</v>
+        <v>1.051362424309588</v>
       </c>
       <c r="J10">
-        <v>1.070830076717234</v>
+        <v>1.02873959883899</v>
       </c>
       <c r="K10">
-        <v>1.069034628117904</v>
+        <v>1.037506846373306</v>
       </c>
       <c r="L10">
-        <v>1.072598732068127</v>
+        <v>1.031278879779429</v>
       </c>
       <c r="M10">
-        <v>1.081708792899329</v>
+        <v>1.042785312742254</v>
       </c>
       <c r="N10">
-        <v>1.0723507782521</v>
+        <v>1.030200527067422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063676046321728</v>
+        <v>0.9946139622021587</v>
       </c>
       <c r="D11">
-        <v>1.064915287087681</v>
+        <v>1.019037691871187</v>
       </c>
       <c r="E11">
-        <v>1.06838960335434</v>
+        <v>1.012252201949473</v>
       </c>
       <c r="F11">
-        <v>1.077534881894925</v>
+        <v>1.023968435949722</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050040154047087</v>
+        <v>1.049242550438198</v>
       </c>
       <c r="J11">
-        <v>1.070044805910135</v>
+        <v>1.024212536007738</v>
       </c>
       <c r="K11">
-        <v>1.068378405872905</v>
+        <v>1.033609299177647</v>
       </c>
       <c r="L11">
-        <v>1.071840645063449</v>
+        <v>1.02694670038488</v>
       </c>
       <c r="M11">
-        <v>1.080954543090285</v>
+        <v>1.038452068799483</v>
       </c>
       <c r="N11">
-        <v>1.071564392270383</v>
+        <v>1.025667035287689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063299247187841</v>
+        <v>0.9923675391394639</v>
       </c>
       <c r="D12">
-        <v>1.064626586373036</v>
+        <v>1.017330667567403</v>
       </c>
       <c r="E12">
-        <v>1.068063163140597</v>
+        <v>1.010375753132259</v>
       </c>
       <c r="F12">
-        <v>1.077210309351166</v>
+        <v>1.022096139969481</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049934767296726</v>
+        <v>1.048437722715709</v>
       </c>
       <c r="J12">
-        <v>1.069752807333647</v>
+        <v>1.022498468204215</v>
       </c>
       <c r="K12">
-        <v>1.068134305683095</v>
+        <v>1.032133204569241</v>
       </c>
       <c r="L12">
-        <v>1.07155876905765</v>
+        <v>1.025306833702802</v>
       </c>
       <c r="M12">
-        <v>1.080674087612174</v>
+        <v>1.036811912939668</v>
       </c>
       <c r="N12">
-        <v>1.071271979022423</v>
+        <v>1.023950533311278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063380083103936</v>
+        <v>0.9928513865372605</v>
       </c>
       <c r="D13">
-        <v>1.064688524823033</v>
+        <v>1.017698272422441</v>
       </c>
       <c r="E13">
-        <v>1.068133194368573</v>
+        <v>1.010779825689376</v>
       </c>
       <c r="F13">
-        <v>1.077279940123644</v>
+        <v>1.022499310722103</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049957391271801</v>
+        <v>1.048611171688497</v>
       </c>
       <c r="J13">
-        <v>1.069815456325313</v>
+        <v>1.022867660182212</v>
       </c>
       <c r="K13">
-        <v>1.068186681919831</v>
+        <v>1.032451155929159</v>
       </c>
       <c r="L13">
-        <v>1.071619245572759</v>
+        <v>1.025660024384447</v>
       </c>
       <c r="M13">
-        <v>1.080734259631942</v>
+        <v>1.037165160345812</v>
       </c>
       <c r="N13">
-        <v>1.071334716982842</v>
+        <v>1.024320249584231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063644905035343</v>
+        <v>0.9944291596214696</v>
       </c>
       <c r="D14">
-        <v>1.064891428023025</v>
+        <v>1.018897234762864</v>
       </c>
       <c r="E14">
-        <v>1.068362623614986</v>
+        <v>1.012097796307123</v>
       </c>
       <c r="F14">
-        <v>1.07750805661298</v>
+        <v>1.023814368688211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050031450928151</v>
+        <v>1.049176386461917</v>
       </c>
       <c r="J14">
-        <v>1.070020675657163</v>
+        <v>1.024071530804497</v>
       </c>
       <c r="K14">
-        <v>1.068358235643595</v>
+        <v>1.033487877867536</v>
       </c>
       <c r="L14">
-        <v>1.071817351027104</v>
+        <v>1.026811790663913</v>
       </c>
       <c r="M14">
-        <v>1.080931366571394</v>
+        <v>1.038317132830251</v>
       </c>
       <c r="N14">
-        <v>1.071540227749683</v>
+        <v>1.025525829840885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063808037841725</v>
+        <v>0.9953955443820321</v>
       </c>
       <c r="D15">
-        <v>1.065016410770218</v>
+        <v>1.019631779989903</v>
       </c>
       <c r="E15">
-        <v>1.068503957190091</v>
+        <v>1.01290530410084</v>
       </c>
       <c r="F15">
-        <v>1.07764858086454</v>
+        <v>1.024620113339818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050077028393087</v>
+        <v>1.049522284840703</v>
       </c>
       <c r="J15">
-        <v>1.070147076270961</v>
+        <v>1.024808879871697</v>
       </c>
       <c r="K15">
-        <v>1.06846388902756</v>
+        <v>1.034122803107512</v>
       </c>
       <c r="L15">
-        <v>1.071939371909487</v>
+        <v>1.027517282006034</v>
       </c>
       <c r="M15">
-        <v>1.081052771609285</v>
+        <v>1.039022766211093</v>
       </c>
       <c r="N15">
-        <v>1.071666807866851</v>
+        <v>1.026264226028337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064757047627759</v>
+        <v>1.000935768034594</v>
       </c>
       <c r="D16">
-        <v>1.065743370300484</v>
+        <v>1.02384545879183</v>
       </c>
       <c r="E16">
-        <v>1.069326197026683</v>
+        <v>1.017538349632063</v>
       </c>
       <c r="F16">
-        <v>1.078466102406645</v>
+        <v>1.029243343350644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050341499471207</v>
+        <v>1.051500746781643</v>
       </c>
       <c r="J16">
-        <v>1.070882148839985</v>
+        <v>1.02903564143192</v>
       </c>
       <c r="K16">
-        <v>1.0690781306059</v>
+        <v>1.037761667726487</v>
       </c>
       <c r="L16">
-        <v>1.072649003618119</v>
+        <v>1.031562233335661</v>
       </c>
       <c r="M16">
-        <v>1.081758809105228</v>
+        <v>1.043068750218411</v>
       </c>
       <c r="N16">
-        <v>1.072402924323237</v>
+        <v>1.030496990074791</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.065351908135489</v>
+        <v>1.004339620656229</v>
       </c>
       <c r="D17">
-        <v>1.066198941823191</v>
+        <v>1.026436380364978</v>
       </c>
       <c r="E17">
-        <v>1.069841634196852</v>
+        <v>1.020387888062765</v>
       </c>
       <c r="F17">
-        <v>1.078978572942866</v>
+        <v>1.032087084154348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050506684228331</v>
+        <v>1.052712207673859</v>
       </c>
       <c r="J17">
-        <v>1.071342687181122</v>
+        <v>1.031632049063818</v>
       </c>
       <c r="K17">
-        <v>1.069462809560941</v>
+        <v>1.039996235266881</v>
       </c>
       <c r="L17">
-        <v>1.073093628251578</v>
+        <v>1.034047643806778</v>
       </c>
       <c r="M17">
-        <v>1.082201170433633</v>
+        <v>1.045554966451159</v>
       </c>
       <c r="N17">
-        <v>1.072864116681643</v>
+        <v>1.033097084903338</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.06569872843854</v>
+        <v>1.006300465828036</v>
       </c>
       <c r="D18">
-        <v>1.066464515307926</v>
+        <v>1.027929607299036</v>
       </c>
       <c r="E18">
-        <v>1.070142162190979</v>
+        <v>1.02203044912128</v>
       </c>
       <c r="F18">
-        <v>1.079277367955157</v>
+        <v>1.033726380394124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050602778260494</v>
+        <v>1.053408583397339</v>
       </c>
       <c r="J18">
-        <v>1.071611113912563</v>
+        <v>1.033127544196971</v>
       </c>
       <c r="K18">
-        <v>1.069686964919002</v>
+        <v>1.041283046577087</v>
       </c>
       <c r="L18">
-        <v>1.0733527887646</v>
+        <v>1.035479443187276</v>
       </c>
       <c r="M18">
-        <v>1.082459007574784</v>
+        <v>1.046987284060782</v>
       </c>
       <c r="N18">
-        <v>1.073132924609832</v>
+        <v>1.034594703811117</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065816959697688</v>
+        <v>1.006965001385356</v>
       </c>
       <c r="D19">
-        <v>1.066555043090603</v>
+        <v>1.028435775906418</v>
       </c>
       <c r="E19">
-        <v>1.070244614671332</v>
+        <v>1.022587288119442</v>
       </c>
       <c r="F19">
-        <v>1.079379229085722</v>
+        <v>1.034282124860586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050635500587562</v>
+        <v>1.053644328093984</v>
       </c>
       <c r="J19">
-        <v>1.07170260717067</v>
+        <v>1.03363433251619</v>
       </c>
       <c r="K19">
-        <v>1.06976335870062</v>
+        <v>1.041719069914366</v>
       </c>
       <c r="L19">
-        <v>1.073441125180494</v>
+        <v>1.035964685883952</v>
       </c>
       <c r="M19">
-        <v>1.082546892201484</v>
+        <v>1.047472710868657</v>
       </c>
       <c r="N19">
-        <v>1.073224547798859</v>
+        <v>1.035102211827878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.065288100988677</v>
+        <v>1.00397698548883</v>
       </c>
       <c r="D20">
-        <v>1.066150079242926</v>
+        <v>1.026160279647276</v>
       </c>
       <c r="E20">
-        <v>1.069786344893068</v>
+        <v>1.020084198572367</v>
       </c>
       <c r="F20">
-        <v>1.078923602197348</v>
+        <v>1.031784004336301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050488987906335</v>
+        <v>1.052583298378497</v>
       </c>
       <c r="J20">
-        <v>1.07129329624585</v>
+        <v>1.03135545716653</v>
       </c>
       <c r="K20">
-        <v>1.069421560081808</v>
+        <v>1.039758217353749</v>
       </c>
       <c r="L20">
-        <v>1.073045943051126</v>
+        <v>1.033782851446351</v>
       </c>
       <c r="M20">
-        <v>1.082153728396309</v>
+        <v>1.045290082463295</v>
       </c>
       <c r="N20">
-        <v>1.072814655605578</v>
+        <v>1.03282010021383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063566928409065</v>
+        <v>0.9939657465298622</v>
       </c>
       <c r="D21">
-        <v>1.06483168489074</v>
+        <v>1.01854504506704</v>
       </c>
       <c r="E21">
-        <v>1.06829506771327</v>
+        <v>1.011710637685704</v>
       </c>
       <c r="F21">
-        <v>1.077440887387248</v>
+        <v>1.023428061138018</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050009653278613</v>
+        <v>1.049010436765176</v>
       </c>
       <c r="J21">
-        <v>1.069960252395321</v>
+        <v>1.023717941953783</v>
       </c>
       <c r="K21">
-        <v>1.068307727049259</v>
+        <v>1.033183392254329</v>
       </c>
       <c r="L21">
-        <v>1.071759021923542</v>
+        <v>1.026473493776195</v>
       </c>
       <c r="M21">
-        <v>1.080873331635702</v>
+        <v>1.037978772040812</v>
       </c>
       <c r="N21">
-        <v>1.071479718679879</v>
+        <v>1.025171738853447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062483336491475</v>
+        <v>0.987423936033211</v>
       </c>
       <c r="D22">
-        <v>1.064001338305411</v>
+        <v>1.013576809884013</v>
       </c>
       <c r="E22">
-        <v>1.067356340303403</v>
+        <v>1.006250016435051</v>
       </c>
       <c r="F22">
-        <v>1.076507521853168</v>
+        <v>1.017979856833044</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049705958595898</v>
+        <v>1.046662522158879</v>
       </c>
       <c r="J22">
-        <v>1.069120294961959</v>
+        <v>1.018726203964136</v>
       </c>
       <c r="K22">
-        <v>1.067605388434837</v>
+        <v>1.028884021706539</v>
       </c>
       <c r="L22">
-        <v>1.070948210221033</v>
+        <v>1.021698667808235</v>
       </c>
       <c r="M22">
-        <v>1.080066594528355</v>
+        <v>1.033203350332772</v>
       </c>
       <c r="N22">
-        <v>1.070638568410617</v>
+        <v>1.020172912023294</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063057906578087</v>
+        <v>0.9909166851067063</v>
       </c>
       <c r="D23">
-        <v>1.064441657030321</v>
+        <v>1.016228588788428</v>
       </c>
       <c r="E23">
-        <v>1.067854083945925</v>
+        <v>1.009164400151576</v>
       </c>
       <c r="F23">
-        <v>1.077002425029135</v>
+        <v>1.020887515750782</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049867173423835</v>
+        <v>1.047917299038561</v>
       </c>
       <c r="J23">
-        <v>1.069565746769</v>
+        <v>1.021391400483471</v>
       </c>
       <c r="K23">
-        <v>1.067977905233056</v>
+        <v>1.031179736558769</v>
       </c>
       <c r="L23">
-        <v>1.071378197307442</v>
+        <v>1.024247810927589</v>
       </c>
       <c r="M23">
-        <v>1.080494424131306</v>
+        <v>1.035752738801738</v>
       </c>
       <c r="N23">
-        <v>1.071084652810318</v>
+        <v>1.022841893427389</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065316933161029</v>
+        <v>1.004140920349398</v>
       </c>
       <c r="D24">
-        <v>1.066172158614858</v>
+        <v>1.026285093156376</v>
       </c>
       <c r="E24">
-        <v>1.069811328113834</v>
+        <v>1.020221482914378</v>
       </c>
       <c r="F24">
-        <v>1.078948441483379</v>
+        <v>1.031921012835577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050496984901956</v>
+        <v>1.05264157851579</v>
       </c>
       <c r="J24">
-        <v>1.071315614494012</v>
+        <v>1.031480495486207</v>
       </c>
       <c r="K24">
-        <v>1.069440199630144</v>
+        <v>1.039865818452014</v>
       </c>
       <c r="L24">
-        <v>1.073067490501775</v>
+        <v>1.03390255483978</v>
       </c>
       <c r="M24">
-        <v>1.082175165981985</v>
+        <v>1.045409827112216</v>
       </c>
       <c r="N24">
-        <v>1.072837005548212</v>
+        <v>1.032945316102264</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067932482052708</v>
+        <v>1.018532672792893</v>
       </c>
       <c r="D25">
-        <v>1.068174298619768</v>
+        <v>1.037254997057701</v>
       </c>
       <c r="E25">
-        <v>1.072078001161453</v>
+        <v>1.032293867696595</v>
       </c>
       <c r="F25">
-        <v>1.08120198271033</v>
+        <v>1.043970516480705</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05121783393509</v>
+        <v>1.057725139028362</v>
       </c>
       <c r="J25">
-        <v>1.073338511843913</v>
+        <v>1.042452039827797</v>
       </c>
       <c r="K25">
-        <v>1.071128443746778</v>
+        <v>1.049301250087494</v>
       </c>
       <c r="L25">
-        <v>1.075020719960026</v>
+        <v>1.04441072519429</v>
       </c>
       <c r="M25">
-        <v>1.084118344807403</v>
+        <v>1.055922546399198</v>
       </c>
       <c r="N25">
-        <v>1.074862775644379</v>
+        <v>1.043932441295273</v>
       </c>
     </row>
   </sheetData>
